--- a/CX PTMs.xlsx
+++ b/CX PTMs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FYF9\OneDrive - PETROBRAS\Área de Trabalho\Testes Scripts\expedicao-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Server AMD\Desktop\Busca prat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB6CF4B-93C8-4581-AB79-6D0CA97598A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472CFAF6-76A2-45B0-9D5D-FFECBA649918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ñ tem</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>POS 8</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>teste2</t>
   </si>
 </sst>
 </file>
@@ -191,6 +197,366 @@
   <dxfs count="25">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
       </font>
       <fill>
@@ -199,366 +565,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -575,32 +581,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{124DBD1F-CD67-4749-985C-2631750099F8}" name="Tabela1" displayName="Tabela1" ref="A1:W31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" dataCellStyle="Nota">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{124DBD1F-CD67-4749-985C-2631750099F8}" name="Tabela1" displayName="Tabela1" ref="A1:W31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Nota">
   <autoFilter ref="A1:W31" xr:uid="{124DBD1F-CD67-4749-985C-2631750099F8}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{1F8A532D-4764-4CDD-9158-6A41C2DC617F}" name="POS 1A" dataDxfId="24" dataCellStyle="Nota"/>
-    <tableColumn id="2" xr3:uid="{44EB656D-BDCC-40EB-8A48-C1FCD5FBDBA5}" name="POS 1B" dataDxfId="23" dataCellStyle="Nota"/>
-    <tableColumn id="3" xr3:uid="{02E71E32-7096-45D1-908F-48FEDCF5843C}" name="POS 1C" dataDxfId="22" dataCellStyle="Nota"/>
-    <tableColumn id="4" xr3:uid="{6F35494D-4C7D-412E-A98F-74965A761D87}" name="POS 1D" dataDxfId="21" dataCellStyle="Nota"/>
-    <tableColumn id="5" xr3:uid="{73A56996-E6CF-41E9-8D09-66C73474A31D}" name="POS 1E" dataDxfId="20" dataCellStyle="Nota"/>
-    <tableColumn id="6" xr3:uid="{B7019544-FF35-43F6-B5A3-42C76D26282A}" name="POS 1F" dataDxfId="19" dataCellStyle="Nota"/>
-    <tableColumn id="7" xr3:uid="{4716DAF6-C4E5-4C09-9936-DDB949CC9899}" name="POS 2A" dataDxfId="18" dataCellStyle="Nota"/>
-    <tableColumn id="8" xr3:uid="{7234B1D9-1695-4F75-A922-5BF87B5688D6}" name="POS 2B" dataDxfId="17" dataCellStyle="Nota"/>
-    <tableColumn id="9" xr3:uid="{69BF8F05-8FB5-477E-AD0D-4D74D680AD12}" name="POS 2C" dataDxfId="16" dataCellStyle="Nota"/>
-    <tableColumn id="10" xr3:uid="{FB660B2D-3B74-48A6-A9E2-07B07DC9B286}" name="POS 2D" dataDxfId="15" dataCellStyle="Nota"/>
-    <tableColumn id="11" xr3:uid="{7206AB87-D98D-4695-96BD-2612C5C2D879}" name="POS 2E" dataDxfId="14" dataCellStyle="Nota"/>
-    <tableColumn id="12" xr3:uid="{539319C2-BBE0-45E1-86C1-2E3D9178044A}" name="POS 2F" dataDxfId="13" dataCellStyle="Nota"/>
-    <tableColumn id="13" xr3:uid="{508A5CBE-EBB2-4AC7-AC05-A09A8EF9323A}" name="POS 3A" dataDxfId="12" dataCellStyle="Nota"/>
-    <tableColumn id="14" xr3:uid="{1FA63CC4-8DD8-4922-91EA-4FCF375E9A7D}" name="POS 3B" dataDxfId="11" dataCellStyle="Nota"/>
-    <tableColumn id="15" xr3:uid="{7EDFFA19-DA9C-421C-B188-B94A1A6CCDCC}" name="POS 3C" dataDxfId="10" dataCellStyle="Nota"/>
-    <tableColumn id="16" xr3:uid="{CADB219A-2469-4584-864A-5FB5EF13353F}" name="POS 3D" dataDxfId="9" dataCellStyle="Nota"/>
-    <tableColumn id="17" xr3:uid="{423F0226-4078-4B39-9BFA-4EEC1107BD7E}" name="POS 3E" dataDxfId="8" dataCellStyle="Nota"/>
-    <tableColumn id="18" xr3:uid="{6B43F3AC-6EE0-446D-B0F4-0EE3D7785367}" name="POS 3F" dataDxfId="7" dataCellStyle="Nota"/>
-    <tableColumn id="19" xr3:uid="{5D6360CB-10F2-4477-A95B-E85881BEEF54}" name="POS 4" dataDxfId="6" dataCellStyle="Nota"/>
-    <tableColumn id="20" xr3:uid="{E8A7AC22-D772-4309-B676-7C0DACFE0B5A}" name="POS 5" dataDxfId="5" dataCellStyle="Nota"/>
-    <tableColumn id="21" xr3:uid="{25C1D01A-6109-42D9-85F6-6B5CC614BE47}" name="POS 6" dataDxfId="4" dataCellStyle="Nota"/>
-    <tableColumn id="22" xr3:uid="{0C6EEF49-2DFD-4CDE-BB14-16D5AACD34EE}" name="POS 7" dataDxfId="3" dataCellStyle="Nota"/>
-    <tableColumn id="23" xr3:uid="{41113FF6-6F9E-4A1F-BA54-CDB890607864}" name="POS 8" dataDxfId="2" dataCellStyle="Nota"/>
+    <tableColumn id="1" xr3:uid="{1F8A532D-4764-4CDD-9158-6A41C2DC617F}" name="POS 1A" dataDxfId="22" dataCellStyle="Nota"/>
+    <tableColumn id="2" xr3:uid="{44EB656D-BDCC-40EB-8A48-C1FCD5FBDBA5}" name="POS 1B" dataDxfId="21" dataCellStyle="Nota"/>
+    <tableColumn id="3" xr3:uid="{02E71E32-7096-45D1-908F-48FEDCF5843C}" name="POS 1C" dataDxfId="20" dataCellStyle="Nota"/>
+    <tableColumn id="4" xr3:uid="{6F35494D-4C7D-412E-A98F-74965A761D87}" name="POS 1D" dataDxfId="19" dataCellStyle="Nota"/>
+    <tableColumn id="5" xr3:uid="{73A56996-E6CF-41E9-8D09-66C73474A31D}" name="POS 1E" dataDxfId="18" dataCellStyle="Nota"/>
+    <tableColumn id="6" xr3:uid="{B7019544-FF35-43F6-B5A3-42C76D26282A}" name="POS 1F" dataDxfId="17" dataCellStyle="Nota"/>
+    <tableColumn id="7" xr3:uid="{4716DAF6-C4E5-4C09-9936-DDB949CC9899}" name="POS 2A" dataDxfId="16" dataCellStyle="Nota"/>
+    <tableColumn id="8" xr3:uid="{7234B1D9-1695-4F75-A922-5BF87B5688D6}" name="POS 2B" dataDxfId="15" dataCellStyle="Nota"/>
+    <tableColumn id="9" xr3:uid="{69BF8F05-8FB5-477E-AD0D-4D74D680AD12}" name="POS 2C" dataDxfId="14" dataCellStyle="Nota"/>
+    <tableColumn id="10" xr3:uid="{FB660B2D-3B74-48A6-A9E2-07B07DC9B286}" name="POS 2D" dataDxfId="13" dataCellStyle="Nota"/>
+    <tableColumn id="11" xr3:uid="{7206AB87-D98D-4695-96BD-2612C5C2D879}" name="POS 2E" dataDxfId="12" dataCellStyle="Nota"/>
+    <tableColumn id="12" xr3:uid="{539319C2-BBE0-45E1-86C1-2E3D9178044A}" name="POS 2F" dataDxfId="11" dataCellStyle="Nota"/>
+    <tableColumn id="13" xr3:uid="{508A5CBE-EBB2-4AC7-AC05-A09A8EF9323A}" name="POS 3A" dataDxfId="10" dataCellStyle="Nota"/>
+    <tableColumn id="14" xr3:uid="{1FA63CC4-8DD8-4922-91EA-4FCF375E9A7D}" name="POS 3B" dataDxfId="9" dataCellStyle="Nota"/>
+    <tableColumn id="15" xr3:uid="{7EDFFA19-DA9C-421C-B188-B94A1A6CCDCC}" name="POS 3C" dataDxfId="8" dataCellStyle="Nota"/>
+    <tableColumn id="16" xr3:uid="{CADB219A-2469-4584-864A-5FB5EF13353F}" name="POS 3D" dataDxfId="7" dataCellStyle="Nota"/>
+    <tableColumn id="17" xr3:uid="{423F0226-4078-4B39-9BFA-4EEC1107BD7E}" name="POS 3E" dataDxfId="6" dataCellStyle="Nota"/>
+    <tableColumn id="18" xr3:uid="{6B43F3AC-6EE0-446D-B0F4-0EE3D7785367}" name="POS 3F" dataDxfId="5" dataCellStyle="Nota"/>
+    <tableColumn id="19" xr3:uid="{5D6360CB-10F2-4477-A95B-E85881BEEF54}" name="POS 4" dataDxfId="4" dataCellStyle="Nota"/>
+    <tableColumn id="20" xr3:uid="{E8A7AC22-D772-4309-B676-7C0DACFE0B5A}" name="POS 5" dataDxfId="3" dataCellStyle="Nota"/>
+    <tableColumn id="21" xr3:uid="{25C1D01A-6109-42D9-85F6-6B5CC614BE47}" name="POS 6" dataDxfId="2" dataCellStyle="Nota"/>
+    <tableColumn id="22" xr3:uid="{0C6EEF49-2DFD-4CDE-BB14-16D5AACD34EE}" name="POS 7" dataDxfId="1" dataCellStyle="Nota"/>
+    <tableColumn id="23" xr3:uid="{41113FF6-6F9E-4A1F-BA54-CDB890607864}" name="POS 8" dataDxfId="0" dataCellStyle="Nota"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -896,7 +902,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1084,9 @@
       <c r="F3" s="3">
         <v>7266</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H3" s="3">
         <v>9128</v>
       </c>
@@ -1145,7 +1153,9 @@
       <c r="F4" s="3">
         <v>6715</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="3">
         <v>8448</v>
       </c>
